--- a/data/EntrevistasRealizadas.xlsx
+++ b/data/EntrevistasRealizadas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Dropbox\Autónomo\Determinantes ambientales\web\generator\join tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65806418-BA1C-4957-8E33-B176798671B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F81BFB-584D-4DED-BB0E-C91D4DF7EF64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,18 +37,18 @@
     <t>Total</t>
   </si>
   <si>
+    <t>Andalucia</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>C.Valenciana</t>
+  </si>
+  <si>
     <t>País Vasco</t>
   </si>
   <si>
-    <t>Andalucia</t>
-  </si>
-  <si>
-    <t>C.Valenciana</t>
-  </si>
-  <si>
-    <t>Barcelona</t>
-  </si>
-  <si>
     <t>16/24</t>
   </si>
   <si>
@@ -58,564 +58,564 @@
     <t>% (columna)</t>
   </si>
   <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
     <t>9,27%</t>
   </si>
   <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
     <t>8,66%</t>
   </si>
   <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
     <t>7,77%</t>
   </si>
   <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
     <t>7,31%</t>
   </si>
   <si>
     <t>4,32%</t>
   </si>
   <si>
+    <t>9,17%</t>
+  </si>
+  <si>
     <t>9,44%</t>
   </si>
   <si>
-    <t>9,17%</t>
-  </si>
-  <si>
     <t>7,93%</t>
   </si>
   <si>
     <t>% (fila)</t>
   </si>
   <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
     <t>41,8%</t>
   </si>
   <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>29,92%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
     <t>100,0%</t>
   </si>
   <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
     <t>38,98%</t>
   </si>
   <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
   </si>
   <si>
     <t>40,4%</t>
   </si>
   <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
     <t>% (región)</t>
   </si>
   <si>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>50,62%</t>
+  </si>
+  <si>
+    <t>50,09%</t>
+  </si>
+  <si>
     <t>52,05%</t>
   </si>
   <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>50,09%</t>
-  </si>
-  <si>
-    <t>50,62%</t>
-  </si>
-  <si>
     <t>50,3%</t>
   </si>
   <si>
+    <t>55,66%</t>
+  </si>
+  <si>
+    <t>49,38%</t>
+  </si>
+  <si>
+    <t>49,91%</t>
+  </si>
+  <si>
     <t>47,95%</t>
   </si>
   <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>49,91%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
     <t>49,7%</t>
   </si>
   <si>
     <t>25/34</t>
   </si>
   <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
     <t>9,76%</t>
   </si>
   <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
     <t>10,62%</t>
   </si>
   <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
     <t>8,31%</t>
   </si>
   <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
     <t>9,98%</t>
   </si>
   <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
     <t>9,0%</t>
   </si>
   <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>15,89%</t>
-  </si>
-  <si>
     <t>10,27%</t>
   </si>
   <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
     <t>35,87%</t>
   </si>
   <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
   </si>
   <si>
     <t>30,53%</t>
   </si>
   <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
   </si>
   <si>
     <t>33,08%</t>
   </si>
   <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>48,75%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
   </si>
   <si>
     <t>51,68%</t>
   </si>
   <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>48,75%</t>
-  </si>
-  <si>
     <t>47,65%</t>
   </si>
   <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
+  </si>
+  <si>
     <t>48,32%</t>
   </si>
   <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
     <t>52,35%</t>
   </si>
   <si>
     <t>35/44</t>
   </si>
   <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
     <t>13,93%</t>
   </si>
   <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
     <t>15,17%</t>
   </si>
   <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
     <t>13,02%</t>
   </si>
   <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
     <t>14,68%</t>
   </si>
   <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
     <t>13,45%</t>
   </si>
   <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
     <t>14,91%</t>
   </si>
   <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
     <t>35,84%</t>
   </si>
   <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
   </si>
   <si>
     <t>32,52%</t>
   </si>
   <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
   </si>
   <si>
     <t>34,08%</t>
   </si>
   <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
   </si>
   <si>
     <t>49,35%</t>
   </si>
   <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>49,92%</t>
-  </si>
-  <si>
     <t>46,92%</t>
   </si>
   <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>50,08%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
     <t>50,65%</t>
   </si>
   <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>50,08%</t>
-  </si>
-  <si>
     <t>53,08%</t>
   </si>
   <si>
     <t>45/54</t>
   </si>
   <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
     <t>19,69%</t>
   </si>
   <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>16,93%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
     <t>18,74%</t>
   </si>
   <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
     <t>18,13%</t>
   </si>
   <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
     <t>18,18%</t>
   </si>
   <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
     <t>18,87%</t>
   </si>
   <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
     <t>18,44%</t>
   </si>
   <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
     <t>41,03%</t>
   </si>
   <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
   </si>
   <si>
     <t>36,56%</t>
   </si>
   <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
+    <t>25,01%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>22,48%</t>
   </si>
   <si>
     <t>38,65%</t>
   </si>
   <si>
-    <t>25,01%</t>
-  </si>
-  <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
   </si>
   <si>
     <t>49,72%</t>
   </si>
   <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
     <t>46,84%</t>
   </si>
   <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>51,03%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
     <t>50,28%</t>
   </si>
   <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>48,62%</t>
-  </si>
-  <si>
-    <t>51,03%</t>
-  </si>
-  <si>
     <t>53,16%</t>
   </si>
   <si>
     <t>55/64</t>
   </si>
   <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
     <t>17,94%</t>
   </si>
   <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
     <t>16,53%</t>
   </si>
   <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
     <t>19,17%</t>
   </si>
   <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
     <t>17,31%</t>
   </si>
   <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
     <t>18,58%</t>
   </si>
   <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
     <t>16,95%</t>
   </si>
   <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
     <t>42,36%</t>
   </si>
   <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>19,67%</t>
   </si>
   <si>
     <t>40,61%</t>
   </si>
   <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>19,67%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
   </si>
   <si>
     <t>41,4%</t>
   </si>
   <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
   </si>
   <si>
     <t>45,99%</t>
   </si>
   <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
     <t>44,95%</t>
   </si>
   <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
     <t>54,01%</t>
   </si>
   <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>54,44%</t>
-  </si>
-  <si>
     <t>55,05%</t>
   </si>
   <si>
@@ -625,123 +625,123 @@
     <t>16,71%</t>
   </si>
   <si>
+    <t>10,92%</t>
+  </si>
+  <si>
     <t>19,9%</t>
   </si>
   <si>
-    <t>10,92%</t>
-  </si>
-  <si>
     <t>16,35%</t>
   </si>
   <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
     <t>15,68%</t>
   </si>
   <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
     <t>15,5%</t>
   </si>
   <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
     <t>15,77%</t>
   </si>
   <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
   </si>
   <si>
     <t>37,88%</t>
   </si>
   <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
   </si>
   <si>
     <t>37,1%</t>
   </si>
   <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
   </si>
   <si>
     <t>37,47%</t>
   </si>
   <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
+  </si>
+  <si>
+    <t>53,93%</t>
   </si>
   <si>
     <t>47,94%</t>
   </si>
   <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>43,98%</t>
-  </si>
-  <si>
     <t>47,42%</t>
   </si>
   <si>
+    <t>60,33%</t>
+  </si>
+  <si>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>46,07%</t>
+  </si>
+  <si>
     <t>52,06%</t>
   </si>
   <si>
-    <t>60,33%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>56,02%</t>
-  </si>
-  <si>
     <t>52,58%</t>
   </si>
   <si>
     <t>75 y más</t>
   </si>
   <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
     <t>13,54%</t>
   </si>
   <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
     <t>13,94%</t>
   </si>
   <si>
@@ -754,138 +754,138 @@
     <t>17,05%</t>
   </si>
   <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
     <t>15,84%</t>
   </si>
   <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
     <t>15,61%</t>
   </si>
   <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
     <t>37,94%</t>
   </si>
   <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>25,47%</t>
   </si>
   <si>
     <t>38,56%</t>
   </si>
   <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
   </si>
   <si>
     <t>38,3%</t>
   </si>
   <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>38,37%</t>
+  </si>
+  <si>
+    <t>47,59%</t>
   </si>
   <si>
     <t>40,75%</t>
   </si>
   <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>38,37%</t>
-  </si>
-  <si>
     <t>41,14%</t>
   </si>
   <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
     <t>59,25%</t>
   </si>
   <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>61,63%</t>
-  </si>
-  <si>
     <t>58,86%</t>
   </si>
   <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
     <t>39,04%</t>
   </si>
   <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>23,54%</t>
   </si>
   <si>
     <t>36,67%</t>
   </si>
   <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
   </si>
   <si>
     <t>37,76%</t>
   </si>
   <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
     <t>38,64%</t>
   </si>
   <si>
+    <t>46,67%</t>
+  </si>
+  <si>
     <t>49,77%</t>
   </si>
   <si>
-    <t>46,67%</t>
-  </si>
-  <si>
     <t>46,09%</t>
   </si>
   <si>
     <t>61,36%</t>
   </si>
   <si>
+    <t>53,33%</t>
+  </si>
+  <si>
     <t>50,23%</t>
   </si>
   <si>
-    <t>53,33%</t>
-  </si>
-  <si>
     <t>53,91%</t>
   </si>
   <si>
@@ -895,615 +895,615 @@
     <t>Hasta primaria</t>
   </si>
   <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
     <t>12,46%</t>
   </si>
   <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
     <t>23,24%</t>
   </si>
   <si>
+    <t>15,9%</t>
+  </si>
+  <si>
     <t>22,41%</t>
   </si>
   <si>
-    <t>15,9%</t>
-  </si>
-  <si>
     <t>19,6%</t>
   </si>
   <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
     <t>14,79%</t>
   </si>
   <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
   </si>
   <si>
     <t>32,84%</t>
   </si>
   <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
   </si>
   <si>
     <t>31,62%</t>
   </si>
   <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
   </si>
   <si>
     <t>32,1%</t>
   </si>
   <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
   </si>
   <si>
     <t>40,13%</t>
   </si>
   <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
     <t>39,22%</t>
   </si>
   <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
     <t>59,87%</t>
   </si>
   <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
     <t>60,78%</t>
   </si>
   <si>
     <t>Secundaria</t>
   </si>
   <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
     <t>65,15%</t>
   </si>
   <si>
-    <t>58,81%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
     <t>59,35%</t>
   </si>
   <si>
+    <t>54,59%</t>
+  </si>
+  <si>
+    <t>43,31%</t>
+  </si>
+  <si>
+    <t>53,24%</t>
+  </si>
+  <si>
     <t>56,13%</t>
   </si>
   <si>
-    <t>54,59%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
-  </si>
-  <si>
-    <t>43,31%</t>
-  </si>
-  <si>
     <t>53,12%</t>
   </si>
   <si>
+    <t>56,22%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>55,37%</t>
+  </si>
+  <si>
     <t>60,43%</t>
   </si>
   <si>
-    <t>56,22%</t>
-  </si>
-  <si>
-    <t>55,37%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
     <t>55,99%</t>
   </si>
   <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
     <t>42,82%</t>
   </si>
   <si>
-    <t>17,91%</t>
-  </si>
-  <si>
-    <t>26,43%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
   </si>
   <si>
     <t>38,75%</t>
   </si>
   <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
   </si>
   <si>
     <t>40,74%</t>
   </si>
   <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
   </si>
   <si>
     <t>51,34%</t>
   </si>
   <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
     <t>48,84%</t>
   </si>
   <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>48,28%</t>
+  </si>
+  <si>
     <t>48,66%</t>
   </si>
   <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>48,28%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
     <t>51,16%</t>
   </si>
   <si>
     <t>Estudios universitarios</t>
   </si>
   <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>39,35%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
     <t>22,39%</t>
   </si>
   <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>39,35%</t>
-  </si>
-  <si>
     <t>25,84%</t>
   </si>
   <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
     <t>26,96%</t>
   </si>
   <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
     <t>27,29%</t>
   </si>
   <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
     <t>24,79%</t>
   </si>
   <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
     <t>26,62%</t>
   </si>
   <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
     <t>33,81%</t>
   </si>
   <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
   </si>
   <si>
     <t>36,23%</t>
   </si>
   <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
   </si>
   <si>
     <t>35,15%</t>
   </si>
   <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>48,42%</t>
   </si>
   <si>
     <t>43,03%</t>
   </si>
   <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>48,42%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
     <t>44,72%</t>
   </si>
   <si>
+    <t>57,76%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
     <t>56,97%</t>
   </si>
   <si>
-    <t>57,76%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
     <t>55,28%</t>
   </si>
   <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
     <t>39,02%</t>
   </si>
   <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
   </si>
   <si>
     <t>36,66%</t>
   </si>
   <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
   </si>
   <si>
     <t>37,75%</t>
   </si>
   <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
   </si>
   <si>
     <t>47,62%</t>
   </si>
   <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
   </si>
   <si>
     <t>52,38%</t>
   </si>
   <si>
-    <t>61,39%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
     <t>Grupo I y II</t>
   </si>
   <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
     <t>21,4%</t>
   </si>
   <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
+    <t>15,33%</t>
   </si>
   <si>
     <t>19,92%</t>
   </si>
   <si>
-    <t>15,33%</t>
-  </si>
-  <si>
     <t>21,78%</t>
   </si>
   <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
     <t>20,63%</t>
   </si>
   <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>34,79%</t>
-  </si>
-  <si>
     <t>23,18%</t>
   </si>
   <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
     <t>36,13%</t>
   </si>
   <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
   </si>
   <si>
     <t>36,38%</t>
   </si>
   <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
   </si>
   <si>
     <t>36,25%</t>
   </si>
   <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>49,47%</t>
   </si>
   <si>
     <t>49,37%</t>
   </si>
   <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>49,47%</t>
-  </si>
-  <si>
     <t>49,54%</t>
   </si>
   <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>50,53%</t>
+  </si>
+  <si>
     <t>50,63%</t>
   </si>
   <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>50,53%</t>
-  </si>
-  <si>
     <t>50,46%</t>
   </si>
   <si>
     <t>Grupo III</t>
   </si>
   <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
     <t>12,32%</t>
   </si>
   <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
   </si>
   <si>
     <t>15,28%</t>
   </si>
   <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
     <t>17,04%</t>
   </si>
   <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
     <t>13,87%</t>
   </si>
   <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
     <t>16,28%</t>
   </si>
   <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
     <t>33,49%</t>
   </si>
   <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
   </si>
   <si>
     <t>35,68%</t>
   </si>
   <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
   </si>
   <si>
     <t>34,72%</t>
   </si>
   <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>41,1%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
   </si>
   <si>
     <t>42,26%</t>
   </si>
   <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>41,1%</t>
-  </si>
-  <si>
     <t>43,81%</t>
   </si>
   <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>58,9%</t>
+  </si>
+  <si>
+    <t>53,17%</t>
+  </si>
+  <si>
     <t>57,74%</t>
   </si>
   <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>58,9%</t>
-  </si>
-  <si>
     <t>56,19%</t>
   </si>
   <si>
     <t>Grupo IV y V</t>
   </si>
   <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
     <t>23,02%</t>
   </si>
   <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
     <t>18,15%</t>
   </si>
   <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
     <t>8,35%</t>
   </si>
   <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
     <t>7,45%</t>
   </si>
   <si>
@@ -1519,430 +1519,430 @@
     <t>15,01%</t>
   </si>
   <si>
+    <t>11,96%</t>
+  </si>
+  <si>
     <t>19,95%</t>
   </si>
   <si>
-    <t>11,96%</t>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
   </si>
   <si>
     <t>44,62%</t>
   </si>
   <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
   </si>
   <si>
     <t>50,35%</t>
   </si>
   <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
+    <t>61,56%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
   </si>
   <si>
     <t>71,44%</t>
   </si>
   <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
     <t>67,77%</t>
   </si>
   <si>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
     <t>28,56%</t>
   </si>
   <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
     <t>32,23%</t>
   </si>
   <si>
     <t>Grupo VI</t>
   </si>
   <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
     <t>25,19%</t>
   </si>
   <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
     <t>25,96%</t>
   </si>
   <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
     <t>23,75%</t>
   </si>
   <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
   </si>
   <si>
     <t>24,44%</t>
   </si>
   <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
     <t>24,64%</t>
   </si>
   <si>
+    <t>13,47%</t>
+  </si>
+  <si>
     <t>23,28%</t>
   </si>
   <si>
-    <t>13,47%</t>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
   </si>
   <si>
     <t>40,21%</t>
   </si>
   <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
     <t>24,22%</t>
   </si>
   <si>
+    <t>13,11%</t>
+  </si>
+  <si>
     <t>22,27%</t>
   </si>
   <si>
-    <t>13,11%</t>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>50,15%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
   </si>
   <si>
     <t>49,05%</t>
   </si>
   <si>
-    <t>45,62%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
     <t>48,8%</t>
   </si>
   <si>
+    <t>54,38%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
     <t>50,95%</t>
   </si>
   <si>
-    <t>54,38%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
     <t>51,2%</t>
   </si>
   <si>
     <t>Grupo VII</t>
   </si>
   <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
     <t>11,27%</t>
   </si>
   <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
     <t>10,94%</t>
   </si>
   <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
     <t>16,89%</t>
   </si>
   <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
     <t>16,07%</t>
   </si>
   <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
     <t>14,22%</t>
   </si>
   <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
   </si>
   <si>
     <t>43,13%</t>
   </si>
   <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
   </si>
   <si>
     <t>41,82%</t>
   </si>
   <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
   </si>
   <si>
     <t>42,3%</t>
   </si>
   <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
   </si>
   <si>
     <t>37,73%</t>
   </si>
   <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
     <t>37,01%</t>
   </si>
   <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
     <t>62,27%</t>
   </si>
   <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
     <t>62,99%</t>
   </si>
   <si>
     <t>No ha trabajado</t>
   </si>
   <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
     <t>6,78%</t>
   </si>
   <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
     <t>4,75%</t>
   </si>
   <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
     <t>15,8%</t>
   </si>
   <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
     <t>14,17%</t>
   </si>
   <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
     <t>11,51%</t>
   </si>
   <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
     <t>9,81%</t>
   </si>
   <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
     <t>59,78%</t>
   </si>
   <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
   </si>
   <si>
     <t>44,37%</t>
   </si>
   <si>
-    <t>44,5%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
+    <t>38,36%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
   </si>
   <si>
     <t>47,83%</t>
   </si>
   <si>
-    <t>38,36%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
+    <t>10,03%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
   </si>
   <si>
     <t>28,04%</t>
   </si>
   <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
-  </si>
-  <si>
     <t>22,44%</t>
   </si>
   <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
     <t>71,96%</t>
   </si>
   <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>63,41%</t>
-  </si>
-  <si>
     <t>77,56%</t>
   </si>
   <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>21,57%</t>
+  </si>
+  <si>
     <t>41,85%</t>
   </si>
   <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
+    <t>16,78%</t>
   </si>
   <si>
     <t>39,78%</t>
   </si>
   <si>
-    <t>16,78%</t>
-  </si>
-  <si>
     <t>23,38%</t>
   </si>
   <si>
+    <t>16,88%</t>
+  </si>
+  <si>
     <t>19,0%</t>
   </si>
   <si>
-    <t>16,88%</t>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
   </si>
   <si>
     <t>47,58%</t>
   </si>
   <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
     <t>46,31%</t>
   </si>
   <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
     <t>52,42%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
   </si>
   <si>
     <t>53,69%</t>
@@ -2079,7 +2079,7 @@
         <xdr:cNvPr id="2" name="Gráfico 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EF88678-B0AC-4989-AED7-A503C56C7D30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70323828-9DE5-4520-A8E4-CB4302CCD57E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2090,9 +2090,6 @@
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
               <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
             </a:ext>
@@ -2519,46 +2516,46 @@
         <v>9</v>
       </c>
       <c r="C4" s="1">
-        <v>380</v>
+        <v>94</v>
       </c>
       <c r="D4" s="1">
-        <v>94</v>
+        <v>163</v>
       </c>
       <c r="E4" s="1">
         <v>272</v>
       </c>
       <c r="F4" s="1">
-        <v>163</v>
+        <v>380</v>
       </c>
       <c r="G4" s="1">
         <v>909</v>
       </c>
       <c r="H4" s="1">
-        <v>350</v>
+        <v>118</v>
       </c>
       <c r="I4" s="1">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="J4" s="1">
         <v>271</v>
       </c>
       <c r="K4" s="1">
-        <v>159</v>
+        <v>350</v>
       </c>
       <c r="L4" s="1">
         <v>898</v>
       </c>
       <c r="M4" s="1">
-        <v>730</v>
+        <v>212</v>
       </c>
       <c r="N4" s="1">
-        <v>212</v>
+        <v>322</v>
       </c>
       <c r="O4" s="1">
         <v>543</v>
       </c>
       <c r="P4" s="1">
-        <v>322</v>
+        <v>730</v>
       </c>
       <c r="Q4" s="1">
         <v>1807</v>
@@ -2600,16 +2597,16 @@
         <v>20</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>24</v>
@@ -2725,46 +2722,46 @@
         <v>9</v>
       </c>
       <c r="C8" s="1">
-        <v>400</v>
+        <v>153</v>
       </c>
       <c r="D8" s="1">
-        <v>153</v>
+        <v>272</v>
       </c>
       <c r="E8" s="1">
         <v>290</v>
       </c>
       <c r="F8" s="1">
-        <v>272</v>
+        <v>400</v>
       </c>
       <c r="G8" s="1">
         <v>1115</v>
       </c>
       <c r="H8" s="1">
-        <v>374</v>
+        <v>249</v>
       </c>
       <c r="I8" s="1">
-        <v>249</v>
+        <v>286</v>
       </c>
       <c r="J8" s="1">
         <v>316</v>
       </c>
       <c r="K8" s="1">
-        <v>286</v>
+        <v>374</v>
       </c>
       <c r="L8" s="1">
         <v>1225</v>
       </c>
       <c r="M8" s="1">
-        <v>774</v>
+        <v>402</v>
       </c>
       <c r="N8" s="1">
-        <v>402</v>
+        <v>558</v>
       </c>
       <c r="O8" s="1">
         <v>606</v>
       </c>
       <c r="P8" s="1">
-        <v>558</v>
+        <v>774</v>
       </c>
       <c r="Q8" s="1">
         <v>2340</v>
@@ -2931,46 +2928,46 @@
         <v>9</v>
       </c>
       <c r="C12" s="1">
-        <v>571</v>
+        <v>313</v>
       </c>
       <c r="D12" s="1">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E12" s="1">
         <v>393</v>
       </c>
       <c r="F12" s="1">
-        <v>316</v>
+        <v>571</v>
       </c>
       <c r="G12" s="1">
         <v>1593</v>
       </c>
       <c r="H12" s="1">
-        <v>586</v>
+        <v>493</v>
       </c>
       <c r="I12" s="1">
-        <v>493</v>
+        <v>317</v>
       </c>
       <c r="J12" s="1">
         <v>406</v>
       </c>
       <c r="K12" s="1">
-        <v>317</v>
+        <v>586</v>
       </c>
       <c r="L12" s="1">
         <v>1802</v>
       </c>
       <c r="M12" s="1">
-        <v>1157</v>
+        <v>806</v>
       </c>
       <c r="N12" s="1">
-        <v>806</v>
+        <v>633</v>
       </c>
       <c r="O12" s="1">
         <v>799</v>
       </c>
       <c r="P12" s="1">
-        <v>633</v>
+        <v>1157</v>
       </c>
       <c r="Q12" s="1">
         <v>3395</v>
@@ -2988,7 +2985,7 @@
         <v>90</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>91</v>
@@ -3137,46 +3134,46 @@
         <v>9</v>
       </c>
       <c r="C16" s="1">
-        <v>807</v>
+        <v>390</v>
       </c>
       <c r="D16" s="1">
-        <v>390</v>
+        <v>285</v>
       </c>
       <c r="E16" s="1">
         <v>485</v>
       </c>
       <c r="F16" s="1">
-        <v>285</v>
+        <v>807</v>
       </c>
       <c r="G16" s="1">
         <v>1967</v>
       </c>
       <c r="H16" s="1">
-        <v>816</v>
+        <v>660</v>
       </c>
       <c r="I16" s="1">
-        <v>660</v>
+        <v>297</v>
       </c>
       <c r="J16" s="1">
         <v>459</v>
       </c>
       <c r="K16" s="1">
-        <v>297</v>
+        <v>816</v>
       </c>
       <c r="L16" s="1">
         <v>2232</v>
       </c>
       <c r="M16" s="1">
-        <v>1623</v>
+        <v>1050</v>
       </c>
       <c r="N16" s="1">
-        <v>1050</v>
+        <v>582</v>
       </c>
       <c r="O16" s="1">
         <v>944</v>
       </c>
       <c r="P16" s="1">
-        <v>582</v>
+        <v>1623</v>
       </c>
       <c r="Q16" s="1">
         <v>4199</v>
@@ -3260,7 +3257,7 @@
         <v>146</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>147</v>
@@ -3343,46 +3340,46 @@
         <v>9</v>
       </c>
       <c r="C20" s="1">
-        <v>735</v>
+        <v>399</v>
       </c>
       <c r="D20" s="1">
-        <v>399</v>
+        <v>231</v>
       </c>
       <c r="E20" s="1">
         <v>370</v>
       </c>
       <c r="F20" s="1">
-        <v>231</v>
+        <v>735</v>
       </c>
       <c r="G20" s="1">
         <v>1735</v>
       </c>
       <c r="H20" s="1">
-        <v>863</v>
+        <v>568</v>
       </c>
       <c r="I20" s="1">
-        <v>568</v>
+        <v>276</v>
       </c>
       <c r="J20" s="1">
         <v>418</v>
       </c>
       <c r="K20" s="1">
-        <v>276</v>
+        <v>863</v>
       </c>
       <c r="L20" s="1">
         <v>2125</v>
       </c>
       <c r="M20" s="1">
-        <v>1598</v>
+        <v>967</v>
       </c>
       <c r="N20" s="1">
-        <v>967</v>
+        <v>507</v>
       </c>
       <c r="O20" s="1">
         <v>788</v>
       </c>
       <c r="P20" s="1">
-        <v>507</v>
+        <v>1598</v>
       </c>
       <c r="Q20" s="1">
         <v>3860</v>
@@ -3424,10 +3421,10 @@
         <v>172</v>
       </c>
       <c r="M21" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="N21" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="O21" s="1" t="s">
         <v>174</v>
@@ -3448,13 +3445,13 @@
         <v>177</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>179</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>30</v>
@@ -3549,46 +3546,46 @@
         <v>9</v>
       </c>
       <c r="C24" s="1">
-        <v>650</v>
+        <v>317</v>
       </c>
       <c r="D24" s="1">
-        <v>317</v>
+        <v>179</v>
       </c>
       <c r="E24" s="1">
         <v>570</v>
       </c>
       <c r="F24" s="1">
-        <v>179</v>
+        <v>650</v>
       </c>
       <c r="G24" s="1">
         <v>1716</v>
       </c>
       <c r="H24" s="1">
-        <v>706</v>
+        <v>482</v>
       </c>
       <c r="I24" s="1">
-        <v>482</v>
+        <v>228</v>
       </c>
       <c r="J24" s="1">
         <v>487</v>
       </c>
       <c r="K24" s="1">
-        <v>228</v>
+        <v>706</v>
       </c>
       <c r="L24" s="1">
         <v>1903</v>
       </c>
       <c r="M24" s="1">
-        <v>1356</v>
+        <v>799</v>
       </c>
       <c r="N24" s="1">
-        <v>799</v>
+        <v>407</v>
       </c>
       <c r="O24" s="1">
         <v>1057</v>
       </c>
       <c r="P24" s="1">
-        <v>407</v>
+        <v>1356</v>
       </c>
       <c r="Q24" s="1">
         <v>3619</v>
@@ -3600,16 +3597,16 @@
         <v>10</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>134</v>
+        <v>199</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>201</v>
+        <v>132</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>202</v>
@@ -3642,7 +3639,7 @@
         <v>211</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3755,46 +3752,46 @@
         <v>9</v>
       </c>
       <c r="C28" s="1">
-        <v>555</v>
+        <v>231</v>
       </c>
       <c r="D28" s="1">
-        <v>231</v>
+        <v>193</v>
       </c>
       <c r="E28" s="1">
         <v>484</v>
       </c>
       <c r="F28" s="1">
-        <v>193</v>
+        <v>555</v>
       </c>
       <c r="G28" s="1">
         <v>1463</v>
       </c>
       <c r="H28" s="1">
-        <v>807</v>
+        <v>443</v>
       </c>
       <c r="I28" s="1">
-        <v>443</v>
+        <v>310</v>
       </c>
       <c r="J28" s="1">
         <v>533</v>
       </c>
       <c r="K28" s="1">
-        <v>310</v>
+        <v>807</v>
       </c>
       <c r="L28" s="1">
         <v>2093</v>
       </c>
       <c r="M28" s="1">
-        <v>1362</v>
+        <v>674</v>
       </c>
       <c r="N28" s="1">
-        <v>674</v>
+        <v>503</v>
       </c>
       <c r="O28" s="1">
         <v>1017</v>
       </c>
       <c r="P28" s="1">
-        <v>503</v>
+        <v>1362</v>
       </c>
       <c r="Q28" s="1">
         <v>3556</v>
@@ -3821,16 +3818,16 @@
         <v>239</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>29</v>
+        <v>240</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J29" s="1" t="s">
         <v>140</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>241</v>
+        <v>27</v>
       </c>
       <c r="L29" s="1" t="s">
         <v>242</v>
@@ -3863,7 +3860,7 @@
         <v>249</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>250</v>
@@ -3961,46 +3958,46 @@
         <v>9</v>
       </c>
       <c r="C32" s="1">
-        <v>4098</v>
+        <v>1897</v>
       </c>
       <c r="D32" s="1">
-        <v>1897</v>
+        <v>1639</v>
       </c>
       <c r="E32" s="1">
         <v>2864</v>
       </c>
       <c r="F32" s="1">
-        <v>1639</v>
+        <v>4098</v>
       </c>
       <c r="G32" s="1">
         <v>10498</v>
       </c>
       <c r="H32" s="1">
-        <v>4502</v>
+        <v>3013</v>
       </c>
       <c r="I32" s="1">
-        <v>3013</v>
+        <v>1873</v>
       </c>
       <c r="J32" s="1">
         <v>2890</v>
       </c>
       <c r="K32" s="1">
-        <v>1873</v>
+        <v>4502</v>
       </c>
       <c r="L32" s="1">
         <v>12278</v>
       </c>
       <c r="M32" s="1">
-        <v>8600</v>
+        <v>4910</v>
       </c>
       <c r="N32" s="1">
-        <v>4910</v>
+        <v>3512</v>
       </c>
       <c r="O32" s="1">
         <v>5754</v>
       </c>
       <c r="P32" s="1">
-        <v>3512</v>
+        <v>8600</v>
       </c>
       <c r="Q32" s="1">
         <v>22776</v>
@@ -4066,13 +4063,13 @@
         <v>269</v>
       </c>
       <c r="D34" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="E34" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>247</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>30</v>
@@ -4114,31 +4111,31 @@
         <v>39</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>282</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>283</v>
       </c>
       <c r="H35" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="K35" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>284</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>286</v>
       </c>
       <c r="L35" s="1" t="s">
         <v>287</v>
@@ -4380,46 +4377,46 @@
         <v>9</v>
       </c>
       <c r="C4" s="1">
-        <v>508</v>
+        <v>291</v>
       </c>
       <c r="D4" s="1">
-        <v>291</v>
+        <v>195</v>
       </c>
       <c r="E4" s="1">
         <v>553</v>
       </c>
       <c r="F4" s="1">
-        <v>195</v>
+        <v>508</v>
       </c>
       <c r="G4" s="1">
         <v>1547</v>
       </c>
       <c r="H4" s="1">
-        <v>758</v>
+        <v>698</v>
       </c>
       <c r="I4" s="1">
-        <v>698</v>
+        <v>297</v>
       </c>
       <c r="J4" s="1">
         <v>644</v>
       </c>
       <c r="K4" s="1">
-        <v>297</v>
+        <v>758</v>
       </c>
       <c r="L4" s="1">
         <v>2397</v>
       </c>
       <c r="M4" s="1">
-        <v>1266</v>
+        <v>989</v>
       </c>
       <c r="N4" s="1">
-        <v>989</v>
+        <v>492</v>
       </c>
       <c r="O4" s="1">
         <v>1197</v>
       </c>
       <c r="P4" s="1">
-        <v>492</v>
+        <v>1266</v>
       </c>
       <c r="Q4" s="1">
         <v>3944</v>
@@ -4443,19 +4440,19 @@
         <v>293</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>237</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>296</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>297</v>
@@ -4464,16 +4461,16 @@
         <v>298</v>
       </c>
       <c r="N5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="O5" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="Q5" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4586,46 +4583,46 @@
         <v>9</v>
       </c>
       <c r="C8" s="1">
-        <v>2656</v>
+        <v>1111</v>
       </c>
       <c r="D8" s="1">
-        <v>1111</v>
+        <v>796</v>
       </c>
       <c r="E8" s="1">
         <v>1639</v>
       </c>
       <c r="F8" s="1">
-        <v>796</v>
+        <v>2656</v>
       </c>
       <c r="G8" s="1">
         <v>6202</v>
       </c>
       <c r="H8" s="1">
-        <v>2517</v>
+        <v>1640</v>
       </c>
       <c r="I8" s="1">
-        <v>1640</v>
+        <v>809</v>
       </c>
       <c r="J8" s="1">
         <v>1530</v>
       </c>
       <c r="K8" s="1">
-        <v>809</v>
+        <v>2517</v>
       </c>
       <c r="L8" s="1">
         <v>6496</v>
       </c>
       <c r="M8" s="1">
-        <v>5173</v>
+        <v>2751</v>
       </c>
       <c r="N8" s="1">
-        <v>2751</v>
+        <v>1605</v>
       </c>
       <c r="O8" s="1">
         <v>3169</v>
       </c>
       <c r="P8" s="1">
-        <v>1605</v>
+        <v>5173</v>
       </c>
       <c r="Q8" s="1">
         <v>12698</v>
@@ -4792,46 +4789,46 @@
         <v>9</v>
       </c>
       <c r="C12" s="1">
-        <v>913</v>
+        <v>487</v>
       </c>
       <c r="D12" s="1">
-        <v>487</v>
+        <v>643</v>
       </c>
       <c r="E12" s="1">
         <v>657</v>
       </c>
       <c r="F12" s="1">
-        <v>643</v>
+        <v>913</v>
       </c>
       <c r="G12" s="1">
         <v>2700</v>
       </c>
       <c r="H12" s="1">
-        <v>1209</v>
+        <v>666</v>
       </c>
       <c r="I12" s="1">
-        <v>666</v>
+        <v>762</v>
       </c>
       <c r="J12" s="1">
         <v>700</v>
       </c>
       <c r="K12" s="1">
-        <v>762</v>
+        <v>1209</v>
       </c>
       <c r="L12" s="1">
         <v>3337</v>
       </c>
       <c r="M12" s="1">
-        <v>2122</v>
+        <v>1153</v>
       </c>
       <c r="N12" s="1">
-        <v>1153</v>
+        <v>1405</v>
       </c>
       <c r="O12" s="1">
         <v>1357</v>
       </c>
       <c r="P12" s="1">
-        <v>1405</v>
+        <v>2122</v>
       </c>
       <c r="Q12" s="1">
         <v>6037</v>
@@ -4998,46 +4995,46 @@
         <v>9</v>
       </c>
       <c r="C16" s="1">
-        <v>4077</v>
+        <v>1889</v>
       </c>
       <c r="D16" s="1">
-        <v>1889</v>
+        <v>1634</v>
       </c>
       <c r="E16" s="1">
         <v>2849</v>
       </c>
       <c r="F16" s="1">
-        <v>1634</v>
+        <v>4077</v>
       </c>
       <c r="G16" s="1">
         <v>10449</v>
       </c>
       <c r="H16" s="1">
-        <v>4484</v>
+        <v>3004</v>
       </c>
       <c r="I16" s="1">
-        <v>3004</v>
+        <v>1868</v>
       </c>
       <c r="J16" s="1">
         <v>2874</v>
       </c>
       <c r="K16" s="1">
-        <v>1868</v>
+        <v>4484</v>
       </c>
       <c r="L16" s="1">
         <v>12230</v>
       </c>
       <c r="M16" s="1">
-        <v>8561</v>
+        <v>4893</v>
       </c>
       <c r="N16" s="1">
-        <v>4893</v>
+        <v>3502</v>
       </c>
       <c r="O16" s="1">
         <v>5723</v>
       </c>
       <c r="P16" s="1">
-        <v>3502</v>
+        <v>8561</v>
       </c>
       <c r="Q16" s="1">
         <v>22679</v>
@@ -5118,13 +5115,13 @@
         <v>402</v>
       </c>
       <c r="I18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="K18" s="1" t="s">
         <v>404</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>30</v>
@@ -5413,46 +5410,46 @@
         <v>9</v>
       </c>
       <c r="C4" s="1">
-        <v>858</v>
+        <v>399</v>
       </c>
       <c r="D4" s="1">
-        <v>399</v>
+        <v>601</v>
       </c>
       <c r="E4" s="1">
         <v>517</v>
       </c>
       <c r="F4" s="1">
-        <v>601</v>
+        <v>858</v>
       </c>
       <c r="G4" s="1">
         <v>2375</v>
       </c>
       <c r="H4" s="1">
-        <v>880</v>
+        <v>455</v>
       </c>
       <c r="I4" s="1">
-        <v>455</v>
+        <v>614</v>
       </c>
       <c r="J4" s="1">
         <v>470</v>
       </c>
       <c r="K4" s="1">
-        <v>614</v>
+        <v>880</v>
       </c>
       <c r="L4" s="1">
         <v>2419</v>
       </c>
       <c r="M4" s="1">
-        <v>1738</v>
+        <v>854</v>
       </c>
       <c r="N4" s="1">
-        <v>854</v>
+        <v>1215</v>
       </c>
       <c r="O4" s="1">
         <v>987</v>
       </c>
       <c r="P4" s="1">
-        <v>1215</v>
+        <v>1738</v>
       </c>
       <c r="Q4" s="1">
         <v>4794</v>
@@ -5476,19 +5473,19 @@
         <v>421</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>422</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>423</v>
+        <v>77</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>407</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>74</v>
+        <v>423</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>424</v>
@@ -5530,10 +5527,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>434</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>302</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>435</v>
@@ -5572,7 +5569,7 @@
         <v>442</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>443</v>
@@ -5587,7 +5584,7 @@
         <v>446</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>447</v>
@@ -5619,46 +5616,46 @@
         <v>9</v>
       </c>
       <c r="C8" s="1">
-        <v>494</v>
+        <v>334</v>
       </c>
       <c r="D8" s="1">
-        <v>334</v>
+        <v>300</v>
       </c>
       <c r="E8" s="1">
         <v>347</v>
       </c>
       <c r="F8" s="1">
-        <v>300</v>
+        <v>494</v>
       </c>
       <c r="G8" s="1">
         <v>1475</v>
       </c>
       <c r="H8" s="1">
-        <v>675</v>
+        <v>393</v>
       </c>
       <c r="I8" s="1">
-        <v>393</v>
+        <v>430</v>
       </c>
       <c r="J8" s="1">
         <v>394</v>
       </c>
       <c r="K8" s="1">
-        <v>430</v>
+        <v>675</v>
       </c>
       <c r="L8" s="1">
         <v>1892</v>
       </c>
       <c r="M8" s="1">
-        <v>1169</v>
+        <v>727</v>
       </c>
       <c r="N8" s="1">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="O8" s="1">
         <v>741</v>
       </c>
       <c r="P8" s="1">
-        <v>730</v>
+        <v>1169</v>
       </c>
       <c r="Q8" s="1">
         <v>3367</v>
@@ -5676,13 +5673,13 @@
         <v>451</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>452</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>453</v>
@@ -5825,46 +5822,46 @@
         <v>9</v>
       </c>
       <c r="C12" s="1">
-        <v>923</v>
+        <v>261</v>
       </c>
       <c r="D12" s="1">
-        <v>261</v>
+        <v>208</v>
       </c>
       <c r="E12" s="1">
         <v>347</v>
       </c>
       <c r="F12" s="1">
-        <v>208</v>
+        <v>923</v>
       </c>
       <c r="G12" s="1">
         <v>1739</v>
       </c>
       <c r="H12" s="1">
-        <v>369</v>
+        <v>163</v>
       </c>
       <c r="I12" s="1">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="J12" s="1">
         <v>157</v>
       </c>
       <c r="K12" s="1">
-        <v>138</v>
+        <v>369</v>
       </c>
       <c r="L12" s="1">
         <v>827</v>
       </c>
       <c r="M12" s="1">
-        <v>1292</v>
+        <v>424</v>
       </c>
       <c r="N12" s="1">
-        <v>424</v>
+        <v>346</v>
       </c>
       <c r="O12" s="1">
         <v>504</v>
       </c>
       <c r="P12" s="1">
-        <v>346</v>
+        <v>1292</v>
       </c>
       <c r="Q12" s="1">
         <v>2566</v>
@@ -5882,7 +5879,7 @@
         <v>486</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>487</v>
@@ -5906,16 +5903,16 @@
         <v>493</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>423</v>
+        <v>494</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>495</v>
+        <v>422</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>496</v>
@@ -5927,16 +5924,16 @@
         <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>499</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>30</v>
@@ -6031,46 +6028,46 @@
         <v>9</v>
       </c>
       <c r="C16" s="1">
-        <v>1010</v>
+        <v>563</v>
       </c>
       <c r="D16" s="1">
-        <v>563</v>
+        <v>335</v>
       </c>
       <c r="E16" s="1">
         <v>579</v>
       </c>
       <c r="F16" s="1">
-        <v>335</v>
+        <v>1010</v>
       </c>
       <c r="G16" s="1">
         <v>2487</v>
       </c>
       <c r="H16" s="1">
-        <v>1049</v>
+        <v>671</v>
       </c>
       <c r="I16" s="1">
-        <v>671</v>
+        <v>333</v>
       </c>
       <c r="J16" s="1">
         <v>556</v>
       </c>
       <c r="K16" s="1">
-        <v>333</v>
+        <v>1049</v>
       </c>
       <c r="L16" s="1">
         <v>2609</v>
       </c>
       <c r="M16" s="1">
-        <v>2059</v>
+        <v>1234</v>
       </c>
       <c r="N16" s="1">
-        <v>1234</v>
+        <v>668</v>
       </c>
       <c r="O16" s="1">
         <v>1135</v>
       </c>
       <c r="P16" s="1">
-        <v>668</v>
+        <v>2059</v>
       </c>
       <c r="Q16" s="1">
         <v>5096</v>
@@ -6100,16 +6097,16 @@
         <v>524</v>
       </c>
       <c r="I17" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="K17" s="1" t="s">
         <v>526</v>
       </c>
-      <c r="K17" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="L17" s="1" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>527</v>
@@ -6133,16 +6130,16 @@
         <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>180</v>
+        <v>463</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>464</v>
+        <v>532</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>533</v>
+        <v>183</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>30</v>
@@ -6163,16 +6160,16 @@
         <v>30</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>35</v>
+        <v>538</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>540</v>
+        <v>38</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>30</v>
@@ -6237,46 +6234,46 @@
         <v>9</v>
       </c>
       <c r="C20" s="1">
-        <v>452</v>
+        <v>233</v>
       </c>
       <c r="D20" s="1">
-        <v>233</v>
+        <v>102</v>
       </c>
       <c r="E20" s="1">
         <v>261</v>
       </c>
       <c r="F20" s="1">
-        <v>102</v>
+        <v>452</v>
       </c>
       <c r="G20" s="1">
         <v>1048</v>
       </c>
       <c r="H20" s="1">
-        <v>746</v>
+        <v>586</v>
       </c>
       <c r="I20" s="1">
-        <v>586</v>
+        <v>185</v>
       </c>
       <c r="J20" s="1">
         <v>267</v>
       </c>
       <c r="K20" s="1">
-        <v>185</v>
+        <v>746</v>
       </c>
       <c r="L20" s="1">
         <v>1784</v>
       </c>
       <c r="M20" s="1">
-        <v>1198</v>
+        <v>819</v>
       </c>
       <c r="N20" s="1">
-        <v>819</v>
+        <v>287</v>
       </c>
       <c r="O20" s="1">
         <v>528</v>
       </c>
       <c r="P20" s="1">
-        <v>287</v>
+        <v>1198</v>
       </c>
       <c r="Q20" s="1">
         <v>2832</v>
@@ -6288,10 +6285,10 @@
         <v>10</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>552</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>312</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>553</v>
@@ -6372,13 +6369,13 @@
         <v>573</v>
       </c>
       <c r="N22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O22" s="1" t="s">
         <v>574</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="P22" s="1" t="s">
         <v>575</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>30</v>
@@ -6443,46 +6440,46 @@
         <v>9</v>
       </c>
       <c r="C24" s="1">
-        <v>272</v>
+        <v>78</v>
       </c>
       <c r="D24" s="1">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="E24" s="1">
         <v>15</v>
       </c>
       <c r="F24" s="1">
-        <v>90</v>
+        <v>272</v>
       </c>
       <c r="G24" s="1">
         <v>455</v>
       </c>
       <c r="H24" s="1">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="I24" s="1">
-        <v>700</v>
+        <v>156</v>
       </c>
       <c r="J24" s="1">
         <v>19</v>
       </c>
       <c r="K24" s="1">
-        <v>156</v>
+        <v>698</v>
       </c>
       <c r="L24" s="1">
         <v>1573</v>
       </c>
       <c r="M24" s="1">
-        <v>970</v>
+        <v>778</v>
       </c>
       <c r="N24" s="1">
-        <v>778</v>
+        <v>246</v>
       </c>
       <c r="O24" s="1">
         <v>34</v>
       </c>
       <c r="P24" s="1">
-        <v>246</v>
+        <v>970</v>
       </c>
       <c r="Q24" s="1">
         <v>2028</v>
@@ -6649,46 +6646,46 @@
         <v>9</v>
       </c>
       <c r="C28" s="1">
-        <v>4009</v>
+        <v>1868</v>
       </c>
       <c r="D28" s="1">
-        <v>1868</v>
+        <v>1636</v>
       </c>
       <c r="E28" s="1">
         <v>2066</v>
       </c>
       <c r="F28" s="1">
-        <v>1636</v>
+        <v>4009</v>
       </c>
       <c r="G28" s="1">
         <v>9579</v>
       </c>
       <c r="H28" s="1">
-        <v>4417</v>
+        <v>2968</v>
       </c>
       <c r="I28" s="1">
-        <v>2968</v>
+        <v>1856</v>
       </c>
       <c r="J28" s="1">
         <v>1863</v>
       </c>
       <c r="K28" s="1">
-        <v>1856</v>
+        <v>4417</v>
       </c>
       <c r="L28" s="1">
         <v>11104</v>
       </c>
       <c r="M28" s="1">
-        <v>8426</v>
+        <v>4836</v>
       </c>
       <c r="N28" s="1">
-        <v>4836</v>
+        <v>3492</v>
       </c>
       <c r="O28" s="1">
         <v>3929</v>
       </c>
       <c r="P28" s="1">
-        <v>3492</v>
+        <v>8426</v>
       </c>
       <c r="Q28" s="1">
         <v>20683</v>
@@ -6766,31 +6763,31 @@
         <v>30</v>
       </c>
       <c r="H30" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="J30" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="J30" s="1" t="s">
+      <c r="K30" s="1" t="s">
         <v>629</v>
       </c>
-      <c r="K30" s="1" t="s">
-        <v>199</v>
-      </c>
       <c r="L30" s="1" t="s">
         <v>30</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>347</v>
+        <v>630</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>632</v>
+        <v>350</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>30</v>
@@ -6949,7 +6946,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E30C8D3-18CF-4806-957C-EE5182FF2A08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0323ABE9-1F1F-4DA5-83F1-A15EF8949DC3}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
